--- a/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/dml/updatedelete/mysql_updatedelete_cases_btree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/dml/updatedelete/mysql_updatedelete_cases_btree.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="809">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2116,10 +2116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Explain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select id,age from $scalar058 where id=8 and id=28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2169,10 +2165,6 @@
   </si>
   <si>
     <t>Sub_component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2981,7 +2973,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2991,6 +2983,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3007,7 +3005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3018,6 +3016,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3321,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3355,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
@@ -3381,7 +3380,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -3411,7 +3410,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>18</v>
@@ -3419,7 +3418,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>10</v>
@@ -3449,7 +3448,7 @@
         <v>23</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>18</v>
@@ -3457,7 +3456,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>10</v>
@@ -3487,7 +3486,7 @@
         <v>29</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>18</v>
@@ -3495,7 +3494,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>10</v>
@@ -3525,7 +3524,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -3533,7 +3532,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>10</v>
@@ -3560,7 +3559,7 @@
         <v>36</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>35</v>
@@ -3568,7 +3567,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>10</v>
@@ -3595,7 +3594,7 @@
         <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>18</v>
@@ -3603,7 +3602,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>10</v>
@@ -3630,7 +3629,7 @@
         <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -3638,7 +3637,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>10</v>
@@ -3665,7 +3664,7 @@
         <v>47</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>18</v>
@@ -3673,7 +3672,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>10</v>
@@ -3701,7 +3700,7 @@
         <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>18</v>
@@ -3709,7 +3708,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>10</v>
@@ -3737,7 +3736,7 @@
         <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -3745,7 +3744,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -3773,7 +3772,7 @@
         <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>18</v>
@@ -3781,7 +3780,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>10</v>
@@ -3809,7 +3808,7 @@
         <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>18</v>
@@ -3817,7 +3816,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>10</v>
@@ -3845,7 +3844,7 @@
         <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -3853,7 +3852,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>10</v>
@@ -3881,7 +3880,7 @@
         <v>72</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>18</v>
@@ -3889,7 +3888,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>10</v>
@@ -3917,7 +3916,7 @@
         <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>18</v>
@@ -3925,7 +3924,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>10</v>
@@ -3953,7 +3952,7 @@
         <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
@@ -3961,7 +3960,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>10</v>
@@ -3989,7 +3988,7 @@
         <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>18</v>
@@ -3997,7 +3996,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>10</v>
@@ -4025,7 +4024,7 @@
         <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>18</v>
@@ -4033,7 +4032,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>10</v>
@@ -4061,7 +4060,7 @@
         <v>85</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -4069,7 +4068,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>10</v>
@@ -4097,7 +4096,7 @@
         <v>85</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>18</v>
@@ -4105,7 +4104,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>10</v>
@@ -4132,7 +4131,7 @@
         <v>95</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>18</v>
@@ -4140,7 +4139,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>10</v>
@@ -4167,7 +4166,7 @@
         <v>97</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>18</v>
@@ -4175,7 +4174,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>10</v>
@@ -4202,7 +4201,7 @@
         <v>100</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>18</v>
@@ -4210,7 +4209,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>10</v>
@@ -4237,7 +4236,7 @@
         <v>104</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>18</v>
@@ -4245,7 +4244,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>10</v>
@@ -4272,7 +4271,7 @@
         <v>106</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>18</v>
@@ -4280,7 +4279,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>10</v>
@@ -4307,7 +4306,7 @@
         <v>116</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>18</v>
@@ -4315,7 +4314,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>10</v>
@@ -4342,7 +4341,7 @@
         <v>111</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>18</v>
@@ -4350,7 +4349,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>10</v>
@@ -4378,7 +4377,7 @@
         <v>111</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>18</v>
@@ -4386,7 +4385,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>10</v>
@@ -4414,7 +4413,7 @@
         <v>119</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>18</v>
@@ -4422,7 +4421,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>10</v>
@@ -4450,7 +4449,7 @@
         <v>121</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>18</v>
@@ -4458,7 +4457,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>10</v>
@@ -4488,7 +4487,7 @@
         <v>140</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>18</v>
@@ -4496,7 +4495,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>10</v>
@@ -4526,7 +4525,7 @@
         <v>141</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>18</v>
@@ -4534,7 +4533,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>10</v>
@@ -4564,7 +4563,7 @@
         <v>142</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>18</v>
@@ -4572,7 +4571,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>10</v>
@@ -4602,7 +4601,7 @@
         <v>143</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>18</v>
@@ -4610,7 +4609,7 @@
     </row>
     <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>10</v>
@@ -4640,7 +4639,7 @@
         <v>143</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>18</v>
@@ -4648,7 +4647,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>10</v>
@@ -4678,7 +4677,7 @@
         <v>144</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>18</v>
@@ -4686,7 +4685,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>10</v>
@@ -4716,7 +4715,7 @@
         <v>145</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>18</v>
@@ -4724,7 +4723,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>10</v>
@@ -4754,7 +4753,7 @@
         <v>146</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>18</v>
@@ -4762,7 +4761,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>10</v>
@@ -4792,7 +4791,7 @@
         <v>147</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>18</v>
@@ -4800,7 +4799,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>10</v>
@@ -4830,7 +4829,7 @@
         <v>148</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>18</v>
@@ -4838,7 +4837,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>10</v>
@@ -4868,7 +4867,7 @@
         <v>149</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>18</v>
@@ -4876,7 +4875,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>10</v>
@@ -4906,7 +4905,7 @@
         <v>163</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>18</v>
@@ -4914,7 +4913,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>10</v>
@@ -4944,7 +4943,7 @@
         <v>166</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>18</v>
@@ -4952,7 +4951,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>10</v>
@@ -4982,7 +4981,7 @@
         <v>171</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>18</v>
@@ -4990,7 +4989,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>10</v>
@@ -5020,7 +5019,7 @@
         <v>173</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>18</v>
@@ -5028,7 +5027,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>10</v>
@@ -5058,7 +5057,7 @@
         <v>179</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>18</v>
@@ -5066,7 +5065,7 @@
     </row>
     <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>10</v>
@@ -5096,7 +5095,7 @@
         <v>163</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>18</v>
@@ -5104,7 +5103,7 @@
     </row>
     <row r="49" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>10</v>
@@ -5134,7 +5133,7 @@
         <v>163</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>18</v>
@@ -5142,7 +5141,7 @@
     </row>
     <row r="50" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>10</v>
@@ -5172,7 +5171,7 @@
         <v>163</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>18</v>
@@ -5180,7 +5179,7 @@
     </row>
     <row r="51" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>10</v>
@@ -5210,7 +5209,7 @@
         <v>163</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>18</v>
@@ -5218,7 +5217,7 @@
     </row>
     <row r="52" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>10</v>
@@ -5248,7 +5247,7 @@
         <v>173</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>18</v>
@@ -5256,7 +5255,7 @@
     </row>
     <row r="53" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>10</v>
@@ -5286,7 +5285,7 @@
         <v>173</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>18</v>
@@ -5294,7 +5293,7 @@
     </row>
     <row r="54" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>10</v>
@@ -5324,7 +5323,7 @@
         <v>173</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>18</v>
@@ -5332,7 +5331,7 @@
     </row>
     <row r="55" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>10</v>
@@ -5362,7 +5361,7 @@
         <v>173</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>18</v>
@@ -5370,7 +5369,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>10</v>
@@ -5400,7 +5399,7 @@
         <v>185</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>18</v>
@@ -5408,7 +5407,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>10</v>
@@ -5438,7 +5437,7 @@
         <v>188</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>18</v>
@@ -5446,7 +5445,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>10</v>
@@ -5475,7 +5474,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>10</v>
@@ -5504,7 +5503,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>10</v>
@@ -5531,7 +5530,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>10</v>
@@ -5560,7 +5559,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>10</v>
@@ -5589,7 +5588,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>10</v>
@@ -5616,7 +5615,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>10</v>
@@ -5643,7 +5642,7 @@
         <v>232</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>18</v>
@@ -5651,7 +5650,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>10</v>
@@ -5678,7 +5677,7 @@
         <v>237</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>35</v>
@@ -5686,7 +5685,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>10</v>
@@ -5716,7 +5715,7 @@
         <v>313</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>18</v>
@@ -5724,7 +5723,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>10</v>
@@ -5754,7 +5753,7 @@
         <v>244</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>35</v>
@@ -5762,7 +5761,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>10</v>
@@ -5792,7 +5791,7 @@
         <v>254</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="L68" s="7" t="s">
         <v>35</v>
@@ -5800,7 +5799,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>10</v>
@@ -5830,7 +5829,7 @@
         <v>258</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>18</v>
@@ -5838,7 +5837,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>10</v>
@@ -5868,7 +5867,7 @@
         <v>258</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>18</v>
@@ -5876,7 +5875,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>10</v>
@@ -5906,7 +5905,7 @@
         <v>254</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>18</v>
@@ -5914,7 +5913,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>10</v>
@@ -5944,7 +5943,7 @@
         <v>253</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>18</v>
@@ -5952,7 +5951,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>10</v>
@@ -5982,7 +5981,7 @@
         <v>295</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>18</v>
@@ -5990,7 +5989,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>10</v>
@@ -6020,7 +6019,7 @@
         <v>294</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>18</v>
@@ -6028,7 +6027,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>10</v>
@@ -6058,7 +6057,7 @@
         <v>297</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>18</v>
@@ -6066,7 +6065,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>10</v>
@@ -6096,7 +6095,7 @@
         <v>296</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>18</v>
@@ -6104,7 +6103,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>10</v>
@@ -6134,7 +6133,7 @@
         <v>298</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>18</v>
@@ -6142,7 +6141,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>10</v>
@@ -6172,7 +6171,7 @@
         <v>298</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>18</v>
@@ -6180,7 +6179,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>10</v>
@@ -6210,7 +6209,7 @@
         <v>299</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>18</v>
@@ -6218,7 +6217,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>10</v>
@@ -6248,7 +6247,7 @@
         <v>299</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>18</v>
@@ -6256,7 +6255,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>10</v>
@@ -6286,7 +6285,7 @@
         <v>300</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>18</v>
@@ -6294,7 +6293,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>10</v>
@@ -6324,7 +6323,7 @@
         <v>300</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>18</v>
@@ -6332,7 +6331,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>10</v>
@@ -6362,7 +6361,7 @@
         <v>320</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>35</v>
@@ -6370,7 +6369,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>10</v>
@@ -6400,7 +6399,7 @@
         <v>326</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="L84" s="7" t="s">
         <v>18</v>
@@ -6408,7 +6407,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>10</v>
@@ -6438,7 +6437,7 @@
         <v>332</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>18</v>
@@ -6446,7 +6445,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>10</v>
@@ -6476,7 +6475,7 @@
         <v>333</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>18</v>
@@ -6484,7 +6483,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>359</v>
@@ -6514,7 +6513,7 @@
         <v>347</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>18</v>
@@ -6522,7 +6521,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>359</v>
@@ -6552,7 +6551,7 @@
         <v>347</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>35</v>
@@ -6560,7 +6559,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>359</v>
@@ -6590,7 +6589,7 @@
         <v>357</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>35</v>
@@ -6598,7 +6597,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>359</v>
@@ -6628,7 +6627,7 @@
         <v>358</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>35</v>
@@ -6636,7 +6635,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>10</v>
@@ -6663,7 +6662,7 @@
         <v>375</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>18</v>
@@ -6671,7 +6670,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>10</v>
@@ -6698,7 +6697,7 @@
         <v>375</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="L92" s="7" t="s">
         <v>18</v>
@@ -6706,7 +6705,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>10</v>
@@ -6733,7 +6732,7 @@
         <v>375</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>18</v>
@@ -6741,7 +6740,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>10</v>
@@ -6768,7 +6767,7 @@
         <v>375</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L94" s="7" t="s">
         <v>18</v>
@@ -6776,7 +6775,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>10</v>
@@ -6803,7 +6802,7 @@
         <v>375</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>18</v>
@@ -6811,7 +6810,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>10</v>
@@ -6838,7 +6837,7 @@
         <v>375</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>18</v>
@@ -6846,7 +6845,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>10</v>
@@ -6873,7 +6872,7 @@
         <v>375</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>18</v>
@@ -6881,7 +6880,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>10</v>
@@ -6908,7 +6907,7 @@
         <v>375</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="L98" s="7" t="s">
         <v>18</v>
@@ -6916,7 +6915,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>10</v>
@@ -6943,7 +6942,7 @@
         <v>375</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>18</v>
@@ -6951,7 +6950,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>10</v>
@@ -6979,7 +6978,7 @@
         <v>393</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="L100" s="7" t="s">
         <v>18</v>
@@ -6987,7 +6986,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>10</v>
@@ -7015,7 +7014,7 @@
         <v>393</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="L101" s="7" t="s">
         <v>18</v>
@@ -7023,7 +7022,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>10</v>
@@ -7051,7 +7050,7 @@
         <v>393</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="L102" s="7" t="s">
         <v>18</v>
@@ -7059,7 +7058,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>10</v>
@@ -7087,7 +7086,7 @@
         <v>393</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L103" s="7" t="s">
         <v>18</v>
@@ -7095,7 +7094,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>10</v>
@@ -7125,7 +7124,7 @@
         <v>410</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="L104" s="8" t="s">
         <v>18</v>
@@ -7133,7 +7132,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>10</v>
@@ -7163,7 +7162,7 @@
         <v>417</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="L105" s="8" t="s">
         <v>18</v>
@@ -7171,7 +7170,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>10</v>
@@ -7201,7 +7200,7 @@
         <v>421</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="L106" s="8" t="s">
         <v>18</v>
@@ -7209,7 +7208,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>10</v>
@@ -7239,7 +7238,7 @@
         <v>425</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="L107" s="8" t="s">
         <v>18</v>
@@ -7247,7 +7246,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>10</v>
@@ -7277,7 +7276,7 @@
         <v>429</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="L108" s="8" t="s">
         <v>18</v>
@@ -7285,7 +7284,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>10</v>
@@ -7315,7 +7314,7 @@
         <v>432</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="L109" s="8" t="s">
         <v>18</v>
@@ -7323,7 +7322,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>10</v>
@@ -7353,7 +7352,7 @@
         <v>436</v>
       </c>
       <c r="K110" s="8" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="L110" s="8" t="s">
         <v>18</v>
@@ -7361,7 +7360,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>10</v>
@@ -7391,7 +7390,7 @@
         <v>444</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="L111" s="8" t="s">
         <v>18</v>
@@ -7399,7 +7398,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>10</v>
@@ -7429,7 +7428,7 @@
         <v>443</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="L112" s="8" t="s">
         <v>18</v>
@@ -7437,7 +7436,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>10</v>
@@ -7467,7 +7466,7 @@
         <v>452</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="L113" s="8" t="s">
         <v>35</v>
@@ -7475,7 +7474,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A114" s="8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>10</v>
@@ -7503,7 +7502,7 @@
         <v>459</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="L114" s="8" t="s">
         <v>18</v>
@@ -7511,7 +7510,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A115" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>10</v>
@@ -7541,7 +7540,7 @@
         <v>465</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="L115" s="8" t="s">
         <v>18</v>
@@ -7549,7 +7548,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A116" s="8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>10</v>
@@ -7577,7 +7576,7 @@
         <v>470</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="L116" s="8" t="s">
         <v>18</v>
@@ -7585,7 +7584,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A117" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>10</v>
@@ -7615,7 +7614,7 @@
         <v>478</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="L117" s="8" t="s">
         <v>18</v>
@@ -7623,7 +7622,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A118" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>10</v>
@@ -7653,7 +7652,7 @@
         <v>485</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="L118" s="8" t="s">
         <v>18</v>
@@ -7661,7 +7660,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A119" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>10</v>
@@ -7691,7 +7690,7 @@
         <v>489</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="L119" s="8" t="s">
         <v>18</v>
@@ -7699,7 +7698,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A120" s="8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>10</v>
@@ -7727,7 +7726,7 @@
         <v>496</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="L120" s="8" t="s">
         <v>18</v>
@@ -7735,7 +7734,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A121" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>10</v>
@@ -7765,7 +7764,7 @@
         <v>502</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="L121" s="8" t="s">
         <v>18</v>
@@ -7773,7 +7772,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A122" s="8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>10</v>
@@ -7801,7 +7800,7 @@
         <v>508</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="L122" s="8" t="s">
         <v>18</v>
@@ -7809,7 +7808,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A123" s="8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>10</v>
@@ -7836,7 +7835,7 @@
         <v>515</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="L123" s="8" t="s">
         <v>18</v>
@@ -7844,7 +7843,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A124" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>10</v>
@@ -7871,7 +7870,7 @@
         <v>516</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="L124" s="8" t="s">
         <v>18</v>
@@ -7879,7 +7878,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A125" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>10</v>
@@ -7904,18 +7903,18 @@
         <v>522</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="L125" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A126" s="8" t="s">
-        <v>679</v>
+      <c r="A126" s="10" t="s">
+        <v>677</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>10</v>
@@ -7926,9 +7925,7 @@
       <c r="D126" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="E126" s="8" t="s">
-        <v>540</v>
-      </c>
+      <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
         <v>519</v>
       </c>
@@ -7942,10 +7939,10 @@
         <v>525</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="L126" s="8" t="s">
         <v>18</v>
@@ -7953,7 +7950,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A127" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>10</v>
@@ -7978,18 +7975,18 @@
         <v>522</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="L127" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A128" s="8" t="s">
-        <v>681</v>
+      <c r="A128" s="10" t="s">
+        <v>679</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>10</v>
@@ -8000,9 +7997,7 @@
       <c r="D128" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="E128" s="8" t="s">
-        <v>540</v>
-      </c>
+      <c r="E128" s="8"/>
       <c r="F128" s="8" t="s">
         <v>519</v>
       </c>
@@ -8016,10 +8011,10 @@
         <v>530</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="L128" s="8" t="s">
         <v>18</v>
@@ -8027,7 +8022,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>10</v>
@@ -8046,24 +8041,24 @@
         <v>520</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I129" s="8" t="s">
         <v>522</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="L129" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A130" s="8" t="s">
-        <v>683</v>
+      <c r="A130" s="10" t="s">
+        <v>681</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>10</v>
@@ -8074,9 +8069,7 @@
       <c r="D130" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="E130" s="8" t="s">
-        <v>554</v>
-      </c>
+      <c r="E130" s="8"/>
       <c r="F130" s="8" t="s">
         <v>519</v>
       </c>
@@ -8084,16 +8077,16 @@
         <v>520</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I130" s="8" t="s">
         <v>525</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L130" s="8" t="s">
         <v>18</v>
@@ -8101,7 +8094,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>10</v>
@@ -8120,24 +8113,24 @@
         <v>520</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I131" s="8" t="s">
         <v>534</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="L131" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A132" s="8" t="s">
-        <v>685</v>
+      <c r="A132" s="10" t="s">
+        <v>683</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>10</v>
@@ -8148,9 +8141,7 @@
       <c r="D132" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="E132" s="8" t="s">
-        <v>540</v>
-      </c>
+      <c r="E132" s="8"/>
       <c r="F132" s="8" t="s">
         <v>537</v>
       </c>
@@ -8158,16 +8149,16 @@
         <v>538</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I132" s="8" t="s">
         <v>539</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L132" s="8" t="s">
         <v>18</v>
